--- a/data/wdw/Foveal Tritanopia.xlsx
+++ b/data/wdw/Foveal Tritanopia.xlsx
@@ -1,19 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wandell/Documents/MATLAB/isetprojects/isetfundamentals/data/wdw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AAC531-85A4-EE45-8017-1FD9B49CAC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CalfromCoeffMeasured19450129" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TranformationsDoubtful" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="AnAttemptAtGettingWillmerData" sheetId="3" r:id="rId6"/>
+    <sheet name="CalfromCoeffMeasured19450129" sheetId="1" r:id="rId1"/>
+    <sheet name="TranformationsDoubtful" sheetId="2" r:id="rId2"/>
+    <sheet name="AnAttemptAtGettingWillmerData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
   <si>
     <t>oeff</t>
   </si>
@@ -74,27 +96,72 @@
   <si>
     <t>Page 9c</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Willmer, E. N., and W. D. Wright. 1945. “Colour Sensitivity of the Fovea Centralis.” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 156 (3952): 119–21.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,39 +170,55 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -152,7 +235,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -165,9 +248,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -184,17 +270,152 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>CalfromCoeffMeasured19450129!$B$4:$B$24</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>CalfromCoeffMeasured19450129!$B$7:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CalfromCoeffMeasured19450129!$K$4:$K$24</c:f>
-              <c:numCache/>
+              <c:f>CalfromCoeffMeasured19450129!$K$7:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E250-DD46-AB85-97203BBADB1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -210,17 +431,152 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>CalfromCoeffMeasured19450129!$B$4:$B$24</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>CalfromCoeffMeasured19450129!$B$7:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CalfromCoeffMeasured19450129!$M$4:$M$24</c:f>
-              <c:numCache/>
+              <c:f>CalfromCoeffMeasured19450129!$M$7:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E250-DD46-AB85-97203BBADB1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -238,18 +594,162 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>CalfromCoeffMeasured19450129!$B$4:$B$24</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>CalfromCoeffMeasured19450129!$B$7:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CalfromCoeffMeasured19450129!$N$4:$N$24</c:f>
-              <c:numCache/>
+              <c:f>CalfromCoeffMeasured19450129!$N$7:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E250-DD46-AB85-97203BBADB1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="322961653"/>
         <c:axId val="1134621907"/>
       </c:lineChart>
@@ -257,7 +757,7 @@
         <c:axId val="322961653"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="680.0"/>
+          <c:max val="680"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -276,7 +776,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -292,7 +792,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -305,9 +805,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1134621907"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1134621907"/>
@@ -351,7 +857,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -383,19 +889,33 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="322961653"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -412,7 +932,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -425,9 +945,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -444,17 +967,152 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>CalfromCoeffMeasured19450129!$B$4:$B$24</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>CalfromCoeffMeasured19450129!$B$7:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CalfromCoeffMeasured19450129!$C$4:$C$24</c:f>
-              <c:numCache/>
+              <c:f>CalfromCoeffMeasured19450129!$C$7:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F142-9743-BAA1-0352E4503A15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -470,18 +1128,162 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>CalfromCoeffMeasured19450129!$B$4:$B$24</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>CalfromCoeffMeasured19450129!$B$7:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CalfromCoeffMeasured19450129!$D$4:$D$24</c:f>
-              <c:numCache/>
+              <c:f>CalfromCoeffMeasured19450129!$D$7:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F142-9743-BAA1-0352E4503A15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2074188195"/>
         <c:axId val="1773245233"/>
       </c:lineChart>
@@ -489,7 +1291,7 @@
         <c:axId val="2074188195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="680.0"/>
+          <c:max val="680"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -508,7 +1310,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -524,7 +1326,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -537,9 +1339,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1773245233"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1773245233"/>
@@ -583,7 +1391,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -615,23 +1423,40 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2074188195"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -646,17 +1471,149 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>TranformationsDoubtful!$B$4:$B$24</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>TranformationsDoubtful!$J$4:$J$24</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39A5-1847-A59D-4DA9B1ED8BFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -672,17 +1629,146 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>TranformationsDoubtful!$B$4:$B$24</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>TranformationsDoubtful!$L$4:$L$24</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39A5-1847-A59D-4DA9B1ED8BFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -698,18 +1784,156 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>TranformationsDoubtful!$B$4:$B$24</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>TranformationsDoubtful!$M$4:$M$24</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39A5-1847-A59D-4DA9B1ED8BFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1675677313"/>
         <c:axId val="307001084"/>
       </c:lineChart>
@@ -734,15 +1958,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -751,7 +1967,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -764,9 +1980,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307001084"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="307001084"/>
@@ -809,15 +2031,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -842,9 +2056,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1675677313"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -862,16 +2079,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -901,16 +2130,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>AnAttemptAtGettingWillmerData!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>650nm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -935,14 +2172,201 @@
           <c:xVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$B$3:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$C$3:$C$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.187</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0B4-B24F-9547-977FCE3AD7E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -950,6 +2374,12 @@
           <c:tx>
             <c:strRef>
               <c:f>AnAttemptAtGettingWillmerData!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>460nm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -974,14 +2404,201 @@
           <c:xVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$B$3:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$D$3:$D$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0B4-B24F-9547-977FCE3AD7E2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1068,9 +2685,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407996738"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1407996738"/>
@@ -1113,15 +2733,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1146,18 +2758,32 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="958999450"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1187,16 +2813,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>AnAttemptAtGettingWillmerData!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>650nm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1221,14 +2855,111 @@
           <c:xVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$F$3:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$G$3:$G$16</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1115-944C-ACB1-B867B0E6A157}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1236,6 +2967,12 @@
           <c:tx>
             <c:strRef>
               <c:f>AnAttemptAtGettingWillmerData!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>460nm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1260,14 +2997,111 @@
           <c:xVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$F$3:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>AnAttemptAtGettingWillmerData!$H$3:$H$216</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>1.7529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1115-944C-ACB1-B867B0E6A157}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1354,9 +3188,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="621262109"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="621262109"/>
@@ -1399,15 +3236,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1432,29 +3261,45 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1326922299"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6572250" cy="5019675"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1463,7 +3308,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1473,13 +3318,19 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6591300" cy="5305425"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1488,7 +3339,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1498,17 +3349,23 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6591300" cy="5438775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="4" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1526,17 +3383,23 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6572250" cy="5572125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="5" name="image2.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1554,7 +3417,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1563,9 +3426,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1574,7 +3443,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1584,7 +3453,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1593,9 +3462,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1604,7 +3479,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1618,9 +3493,15 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1629,7 +3510,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1639,7 +3520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1829,697 +3710,709 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="1">
-        <v>450.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1">
-        <v>460.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I24" si="1">F5+G5</f>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>460</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I27" si="0">F8+G8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.05</v>
       </c>
-      <c r="M5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>470</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.04</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
         <v>0.96</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="1">
         <v>0.03</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="1">
         <v>0.96</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="K6" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.0021</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.0679</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1">
-        <v>480.0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="K9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>480</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.08</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D10" s="1">
         <v>0.92</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F10" s="1">
         <v>0.05</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G10" s="1">
         <v>0.92</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.97</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="K10" s="1">
         <v>0.1</v>
       </c>
-      <c r="M7" s="1">
-        <v>0.0052</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.0948</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1">
-        <v>490.0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="M10" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>490</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D11" s="1">
         <v>0.89</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.89</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="K8" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.0102</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.1296</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="K11" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.15</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="1">
         <v>0.85</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F12" s="1">
         <v>0.1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G12" s="1">
         <v>0.85</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K12" s="1">
         <v>0.2</v>
       </c>
-      <c r="M9" s="1">
-        <v>0.021</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.179</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1">
-        <v>510.0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="M12" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>510</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D13" s="1">
         <v>0.81</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F13" s="1">
         <v>0.13</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G13" s="1">
         <v>0.81</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.33</v>
       </c>
-      <c r="M10" s="1">
-        <v>0.046</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.2854</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1">
-        <v>520.0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="M13" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.28539999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>520</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.23</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="1">
         <v>0.77</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F14" s="1">
         <v>0.15</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G14" s="1">
         <v>0.77</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K14" s="1">
         <v>0.53</v>
       </c>
-      <c r="M11" s="1">
-        <v>0.087</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M14" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N14" s="1">
         <v>0.443</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="1">
-        <v>530.0</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>530</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.27</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D15" s="1">
         <v>0.73</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F15" s="1">
         <v>0.18</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G15" s="1">
         <v>0.73</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>540</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="K16" s="1">
         <v>0.91</v>
       </c>
-      <c r="K12" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.144</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.586</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1">
-        <v>540.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="M16" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>550</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>560</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>570</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>580</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>590</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
+        <v>600</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
+        <v>610</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>620</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1">
+        <v>630</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <v>640</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F13" s="1">
+      <c r="K26" s="1">
         <v>0.21</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.695</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1">
-        <v>550.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.87</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.287</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.673</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1">
-        <v>570.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.56</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.56</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1">
-        <v>580.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.298</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.462</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1">
-        <v>590.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.57</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0.333</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.77</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.358</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.242</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1">
-        <v>610.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.344</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1">
-        <v>620.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="M26" s="1">
+        <v>0.2198</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
+        <v>650</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="K27" s="1">
         <v>0.15</v>
       </c>
-      <c r="F21" s="1">
-        <v>0.57</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="M27" s="1">
         <v>0.15</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.301</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1">
-        <v>630.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1">
-        <v>640.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.68</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.2198</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1">
-        <v>650.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.67</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.0</v>
+      <c r="N27" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +4426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2560,88 +4453,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.032</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D4" s="1">
         <v>1.032</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.065</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="G4" s="1">
         <v>1.032</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C6" s="1">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="F6" s="1">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.966</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H24" si="1">F6+G6</f>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H24" si="0">F6+G6</f>
         <v>1.034</v>
       </c>
       <c r="J6" s="1">
         <v>0.04</v>
       </c>
       <c r="L6" s="1">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M6" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="C7" s="1">
-        <v>0.093</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="F7" s="1">
         <v>0.19</v>
       </c>
       <c r="G7" s="1">
-        <v>0.907</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
         <v>1.097</v>
       </c>
       <c r="J7" s="1">
@@ -2654,54 +4547,54 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="C8" s="1">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="F8" s="1">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>0.855</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
         <v>1.151</v>
       </c>
       <c r="J8" s="1">
         <v>0.1</v>
       </c>
       <c r="L8" s="1">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="C9" s="1">
         <v>0.161</v>
       </c>
       <c r="D9" s="1">
-        <v>0.839</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="F9" s="1">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.839</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
         <v>1.167</v>
       </c>
       <c r="J9" s="1">
@@ -2714,24 +4607,24 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="C10" s="1">
         <v>0.216</v>
       </c>
       <c r="D10" s="1">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="F10" s="1">
         <v>0.44</v>
       </c>
       <c r="G10" s="1">
-        <v>0.784</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
         <v>1.224</v>
       </c>
       <c r="J10" s="1">
@@ -2744,9 +4637,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="C11" s="1">
         <v>0.248</v>
@@ -2760,9 +4653,9 @@
       <c r="G11" s="1">
         <v>0.752</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.257</v>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2570000000000001</v>
       </c>
       <c r="J11" s="1">
         <v>0.52</v>
@@ -2774,25 +4667,25 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="C12" s="1">
-        <v>0.281</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>0.719</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="F12" s="1">
-        <v>0.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="G12" s="1">
-        <v>0.719</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>1.292</v>
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2919999999999998</v>
       </c>
       <c r="J12" s="1">
         <v>0.71</v>
@@ -2804,24 +4697,24 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="C13" s="1">
         <v>0.315</v>
       </c>
       <c r="D13" s="1">
-        <v>0.685</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="F13" s="1">
-        <v>0.642</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="G13" s="1">
-        <v>0.685</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
         <v>1.327</v>
       </c>
       <c r="J13" s="1">
@@ -2834,55 +4727,55 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="C14" s="1">
-        <v>0.352</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F14" s="1">
-        <v>0.718</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="G14" s="1">
-        <v>0.648</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>1.366</v>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3660000000000001</v>
       </c>
       <c r="J14" s="1">
         <v>0.98</v>
       </c>
       <c r="L14" s="1">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M14" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="C15" s="1">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>0.603</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="F15" s="1">
-        <v>0.809</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="G15" s="1">
-        <v>0.603</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.412</v>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4119999999999999</v>
       </c>
       <c r="J15" s="1">
         <v>0.97</v>
@@ -2894,25 +4787,25 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="C16" s="1">
         <v>0.442</v>
       </c>
       <c r="D16" s="1">
-        <v>0.558</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F16" s="1">
         <v>0.9</v>
       </c>
       <c r="G16" s="1">
-        <v>0.558</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.458</v>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4580000000000002</v>
       </c>
       <c r="J16" s="1">
         <v>0.82</v>
@@ -2924,25 +4817,25 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="C17" s="1">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F17" s="1">
         <v>0.995</v>
       </c>
       <c r="G17" s="1">
-        <v>0.512</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>1.507</v>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5070000000000001</v>
       </c>
       <c r="J17" s="1">
         <v>0.71</v>
@@ -2954,25 +4847,25 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
-        <v>590.0</v>
+        <v>590</v>
       </c>
       <c r="C18" s="1">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D18" s="1">
         <v>0.44</v>
       </c>
       <c r="F18" s="1">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G18" s="1">
         <v>0.44</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>1.58</v>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5799999999999998</v>
       </c>
       <c r="J18" s="1">
         <v>0.62</v>
@@ -2984,28 +4877,28 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="C19" s="1">
-        <v>0.668</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>0.332</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F19" s="1">
         <v>1.36</v>
       </c>
       <c r="G19" s="1">
-        <v>0.332</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.692</v>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6920000000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L19" s="1">
         <v>0.44</v>
@@ -3014,24 +4907,24 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="C20" s="1">
-        <v>0.756</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F20" s="1">
         <v>1.54</v>
       </c>
       <c r="G20" s="1">
-        <v>0.244</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
         <v>1.784</v>
       </c>
       <c r="J20" s="1">
@@ -3041,12 +4934,12 @@
         <v>0.35</v>
       </c>
       <c r="M20" s="1">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="C21" s="1">
         <v>0.83</v>
@@ -3060,9 +4953,9 @@
       <c r="G21" s="1">
         <v>0.17</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>1.86</v>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J21" s="1">
         <v>0.39</v>
@@ -3074,12 +4967,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="C22" s="1">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D22" s="1">
         <v>0.104</v>
@@ -3090,12 +4983,12 @@
       <c r="G22" s="1">
         <v>0.104</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>1.924</v>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9240000000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L22" s="1">
         <v>0.18</v>
@@ -3104,24 +4997,24 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="C23" s="1">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F23" s="1">
         <v>1.94</v>
       </c>
       <c r="G23" s="1">
-        <v>0.048</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
         <v>1.988</v>
       </c>
       <c r="J23" s="1">
@@ -3131,27 +5024,27 @@
         <v>0.1</v>
       </c>
       <c r="M23" s="1">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>2.04</v>
       </c>
       <c r="G24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
       <c r="J24" s="1">
@@ -3159,21 +5052,23 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3181,11 +5076,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3201,9 +5096,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B3" s="1">
         <v>582.5</v>
@@ -3218,68 +5113,68 @@
         <v>18</v>
       </c>
       <c r="F3" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="G3" s="1">
         <v>-0.252</v>
       </c>
       <c r="H3" s="1">
-        <v>1.753</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B4" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="C4" s="1">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="G4" s="1">
         <v>-0.122</v>
       </c>
       <c r="H4" s="1">
-        <v>1.586</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B5" s="1">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="C5" s="1">
-        <v>0.744</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1.43</v>
@@ -3288,41 +5183,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B6" s="1">
-        <v>590.0</v>
+        <v>590</v>
       </c>
       <c r="C6" s="1">
-        <v>0.522</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>0.478</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="G6" s="1">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>1.398</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B7" s="1">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="C7" s="1">
         <v>0.379</v>
@@ -3334,10 +5229,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="G7" s="1">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H7" s="1">
         <v>1.31</v>
@@ -3346,27 +5241,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B8" s="1">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="C8" s="1">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>0.715</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="G8" s="1">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="H8" s="1">
         <v>1.2</v>
@@ -3375,12 +5270,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B9" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="C9" s="1">
         <v>0.24</v>
@@ -3392,39 +5287,39 @@
         <v>18</v>
       </c>
       <c r="F9" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="G9" s="1">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B10" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="C10" s="1">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.721</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="1">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="G10" s="1">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H10" s="1">
         <v>0.995</v>
@@ -3433,47 +5328,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B11" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="C11" s="1">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>0.766</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="G11" s="1">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>0.887</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B12" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C12" s="1">
         <v>0.155</v>
       </c>
       <c r="D12" s="1">
-        <v>0.845</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
@@ -3482,18 +5377,18 @@
         <v>582.5</v>
       </c>
       <c r="G12" s="1">
-        <v>0.555</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H12" s="1">
-        <v>0.716</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B13" s="1">
         <v>582.5</v>
@@ -3508,39 +5403,39 @@
         <v>18</v>
       </c>
       <c r="F13" s="1">
-        <v>590.0</v>
+        <v>590</v>
       </c>
       <c r="G13" s="1">
-        <v>0.611</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B14" s="1">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="C14" s="1">
         <v>0.312</v>
       </c>
       <c r="D14" s="1">
-        <v>0.688</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="G14" s="1">
-        <v>0.822</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H14" s="1">
         <v>0.372</v>
@@ -3549,24 +5444,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B15" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="C15" s="1">
         <v>0.224</v>
       </c>
       <c r="D15" s="1">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="G15" s="1">
         <v>1.01</v>
@@ -3578,106 +5473,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B16" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="C16" s="1">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="G16" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B17" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C17" s="1">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>0.988</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B18" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="C18" s="1">
-        <v>-0.227</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>1.227</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B19" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.136</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>1.136</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>1.9441219E7</v>
+        <v>19441219</v>
       </c>
       <c r="B20" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="C20" s="1">
         <v>0.187</v>
       </c>
       <c r="D20" s="1">
-        <v>0.813</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B21" s="1">
         <v>582.5</v>
@@ -3689,26 +5584,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B22" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C22" s="1">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.948</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B23" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="C23" s="1">
         <v>-0.111</v>
@@ -3717,79 +5612,79 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B24" s="1">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="C24" s="1">
         <v>-0.112</v>
       </c>
       <c r="D24" s="1">
-        <v>1.112</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B25" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="C25" s="1">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>0.904</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B26" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="C26" s="1">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D26" s="1">
         <v>0.996</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B27" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C27" s="1">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>1.9450108E7</v>
+        <v>19450108</v>
       </c>
       <c r="B28" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="C28" s="1">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.981</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B29" s="1">
         <v>582.5</v>
@@ -3801,40 +5696,40 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B30" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="C30" s="1">
         <v>0.154</v>
       </c>
       <c r="D30" s="1">
-        <v>0.846</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B31" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="C31" s="1">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>0.834</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B32" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="C32" s="1">
         <v>0.27</v>
@@ -3843,12 +5738,12 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B33" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="C33" s="1">
         <v>0.247</v>
@@ -3857,133 +5752,134 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B34" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="C34" s="1">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>0.676</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B35" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="C35" s="1">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D35" s="1">
-        <v>0.704</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B36" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="C36" s="1">
         <v>0.307</v>
       </c>
       <c r="D36" s="1">
-        <v>0.693</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B37" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="C37" s="1">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D37" s="1">
-        <v>0.465</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B38" s="1">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="C38" s="1">
-        <v>0.785</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D38" s="1">
         <v>0.215</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B39" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="C39" s="1">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B40" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="C40" s="1">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D40" s="1">
-        <v>0.789</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B41" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="C41" s="1">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D41" s="1">
-        <v>0.759</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>1.9450213E7</v>
+        <v>19450213</v>
       </c>
       <c r="B42" s="1">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="C42" s="1">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>0.825</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>